--- a/datasets/plan10_allschools_2014_all_v3.xlsx
+++ b/datasets/plan10_allschools_2014_all_v3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CEO\OA\OAShare\Explore and PLAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedsayed/Public/Personal/UML/Project/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="11100" windowHeight="5325"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="15760" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLAN!$A$3:$BW$201</definedName>
     <definedName name="PLAN">PLAN!$A$4:$BW$201</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -795,48 +803,48 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -846,10 +854,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -857,7 +865,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -865,12 +873,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,18 +887,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,10 +926,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -993,9 +1001,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1028,9 +1036,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1241,18 +1249,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="75" width="6.5703125" customWidth="1"/>
-    <col min="76" max="76" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="75" width="6.5" customWidth="1"/>
+    <col min="76" max="76" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>228</v>
       </c>
@@ -1260,88 +1268,88 @@
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15" t="s">
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="15"/>
-      <c r="BW1" s="15"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
     </row>
-    <row r="2" spans="1:75" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>237</v>
       </c>
@@ -1349,98 +1357,98 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16" t="s">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16" t="s">
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16" t="s">
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16" t="s">
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16" t="s">
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="16"/>
-      <c r="BT2" s="16"/>
-      <c r="BU2" s="16"/>
-      <c r="BV2" s="16"/>
-      <c r="BW2" s="16"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
     </row>
-    <row r="3" spans="1:75" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1675,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>22989</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2119,7 +2127,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2254,7 @@
       <c r="BV6" s="5"/>
       <c r="BW6" s="8"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +2441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2767,7 +2775,7 @@
       <c r="BV9" s="5"/>
       <c r="BW9" s="8"/>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2874,7 +2882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="BW12" s="8"/>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -3762,7 +3770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -3969,7 +3977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -4076,7 +4084,7 @@
       <c r="BV16" s="5"/>
       <c r="BW16" s="8"/>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -4183,7 +4191,7 @@
       <c r="BV17" s="5"/>
       <c r="BW17" s="8"/>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -4290,7 +4298,7 @@
       <c r="BV18" s="5"/>
       <c r="BW18" s="8"/>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -4393,7 +4401,7 @@
       </c>
       <c r="BW19" s="8"/>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4528,7 @@
       <c r="BV20" s="5"/>
       <c r="BW20" s="8"/>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -4747,7 +4755,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -4894,7 +4902,7 @@
       <c r="BV22" s="5"/>
       <c r="BW22" s="8"/>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -5121,7 +5129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -5348,7 +5356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -5575,7 +5583,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -5672,7 +5680,7 @@
       </c>
       <c r="BW26" s="8"/>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -5899,7 +5907,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
@@ -6233,7 +6241,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -6460,7 +6468,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
@@ -6647,7 +6655,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -6794,7 +6802,7 @@
       <c r="BV32" s="5"/>
       <c r="BW32" s="8"/>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
@@ -7248,7 +7256,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -7435,7 +7443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -7602,7 +7610,7 @@
       <c r="BV36" s="5"/>
       <c r="BW36" s="8"/>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -7699,7 +7707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -7886,7 +7894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -8113,7 +8121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -8340,7 +8348,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -8527,7 +8535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -8734,7 +8742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -8941,7 +8949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -9148,7 +9156,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
@@ -9325,7 +9333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
@@ -9552,7 +9560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -9759,7 +9767,7 @@
       </c>
       <c r="BW47" s="8"/>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>29</v>
       </c>
@@ -9986,7 +9994,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
@@ -10213,7 +10221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>42</v>
       </c>
@@ -10320,7 +10328,7 @@
       <c r="BV50" s="5"/>
       <c r="BW50" s="8"/>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>33</v>
       </c>
@@ -10547,7 +10555,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
@@ -10754,7 +10762,7 @@
       </c>
       <c r="BW52" s="8"/>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -10961,7 +10969,7 @@
       </c>
       <c r="BW53" s="8"/>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>67</v>
       </c>
@@ -11188,7 +11196,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
@@ -11415,7 +11423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>70</v>
       </c>
@@ -11642,7 +11650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>70</v>
       </c>
@@ -11849,7 +11857,7 @@
       </c>
       <c r="BW57" s="8"/>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
@@ -11996,7 +12004,7 @@
       <c r="BV58" s="5"/>
       <c r="BW58" s="8"/>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -12183,7 +12191,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>75</v>
       </c>
@@ -12410,7 +12418,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>5</v>
       </c>
@@ -12607,7 +12615,7 @@
       </c>
       <c r="BW61" s="8"/>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>33</v>
       </c>
@@ -12834,7 +12842,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -13001,7 +13009,7 @@
       <c r="BV63" s="5"/>
       <c r="BW63" s="8"/>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>80</v>
       </c>
@@ -13228,7 +13236,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>67</v>
       </c>
@@ -13455,7 +13463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>83</v>
       </c>
@@ -13642,7 +13650,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="67" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>5</v>
       </c>
@@ -13789,7 +13797,7 @@
       <c r="BV67" s="5"/>
       <c r="BW67" s="8"/>
     </row>
-    <row r="68" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>40</v>
       </c>
@@ -13896,7 +13904,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -14123,7 +14131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>29</v>
       </c>
@@ -14350,7 +14358,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>89</v>
       </c>
@@ -14577,7 +14585,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
@@ -14804,7 +14812,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>5</v>
       </c>
@@ -14911,7 +14919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>89</v>
       </c>
@@ -15138,7 +15146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>91</v>
       </c>
@@ -15365,7 +15373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>40</v>
       </c>
@@ -15592,7 +15600,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
@@ -15819,7 +15827,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>5</v>
       </c>
@@ -15966,7 +15974,7 @@
       <c r="BV78" s="5"/>
       <c r="BW78" s="8"/>
     </row>
-    <row r="79" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
@@ -16193,7 +16201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -16360,7 +16368,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>24</v>
       </c>
@@ -16511,7 +16519,7 @@
       </c>
       <c r="BW81" s="8"/>
     </row>
-    <row r="82" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>5</v>
       </c>
@@ -16628,7 +16636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>65</v>
       </c>
@@ -16855,7 +16863,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>29</v>
       </c>
@@ -17082,7 +17090,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="85" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
@@ -17309,7 +17317,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>29</v>
       </c>
@@ -17536,7 +17544,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>29</v>
       </c>
@@ -17763,7 +17771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>40</v>
       </c>
@@ -17990,7 +17998,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>70</v>
       </c>
@@ -18217,7 +18225,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>70</v>
       </c>
@@ -18444,7 +18452,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>16</v>
       </c>
@@ -18671,7 +18679,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>12</v>
       </c>
@@ -18898,7 +18906,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="93" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
@@ -19015,7 +19023,7 @@
       <c r="BV93" s="5"/>
       <c r="BW93" s="8"/>
     </row>
-    <row r="94" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>5</v>
       </c>
@@ -19122,7 +19130,7 @@
       </c>
       <c r="BW94" s="8"/>
     </row>
-    <row r="95" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -19229,7 +19237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>12</v>
       </c>
@@ -19456,7 +19464,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="97" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>91</v>
       </c>
@@ -19683,7 +19691,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>24</v>
       </c>
@@ -19790,7 +19798,7 @@
       <c r="BV98" s="5"/>
       <c r="BW98" s="8"/>
     </row>
-    <row r="99" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>83</v>
       </c>
@@ -20017,7 +20025,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>10</v>
       </c>
@@ -20244,7 +20252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>83</v>
       </c>
@@ -20471,7 +20479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>5</v>
       </c>
@@ -20638,7 +20646,7 @@
       </c>
       <c r="BW102" s="8"/>
     </row>
-    <row r="103" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>16</v>
       </c>
@@ -20865,7 +20873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>5</v>
       </c>
@@ -20972,7 +20980,7 @@
       <c r="BV104" s="5"/>
       <c r="BW104" s="8"/>
     </row>
-    <row r="105" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
@@ -21199,7 +21207,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>75</v>
       </c>
@@ -21426,7 +21434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -21613,7 +21621,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -21820,7 +21828,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -22047,7 +22055,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -22234,7 +22242,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -22461,7 +22469,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -22688,7 +22696,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -22915,7 +22923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -23142,7 +23150,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -23349,7 +23357,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -23516,7 +23524,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="117" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -23623,7 +23631,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -23730,7 +23738,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>83</v>
       </c>
@@ -23957,7 +23965,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>80</v>
       </c>
@@ -24184,7 +24192,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -24411,7 +24419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -24638,7 +24646,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>65</v>
       </c>
@@ -24825,7 +24833,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>38</v>
       </c>
@@ -25052,7 +25060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>24</v>
       </c>
@@ -25159,7 +25167,7 @@
       <c r="BV125" s="5"/>
       <c r="BW125" s="8"/>
     </row>
-    <row r="126" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>65</v>
       </c>
@@ -25386,7 +25394,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>24</v>
       </c>
@@ -25553,7 +25561,7 @@
       <c r="BV127" s="5"/>
       <c r="BW127" s="8"/>
     </row>
-    <row r="128" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -25780,7 +25788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -26007,7 +26015,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
@@ -26214,7 +26222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>7</v>
       </c>
@@ -26441,7 +26449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>5</v>
       </c>
@@ -26612,7 +26620,7 @@
       </c>
       <c r="BW132" s="8"/>
     </row>
-    <row r="133" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>38</v>
       </c>
@@ -26839,7 +26847,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>10</v>
       </c>
@@ -27066,7 +27074,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>42</v>
       </c>
@@ -27253,7 +27261,7 @@
       <c r="BV135" s="5"/>
       <c r="BW135" s="8"/>
     </row>
-    <row r="136" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -27360,7 +27368,7 @@
       <c r="BV136" s="5"/>
       <c r="BW136" s="8"/>
     </row>
-    <row r="137" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>20</v>
       </c>
@@ -27587,7 +27595,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="138" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>29</v>
       </c>
@@ -27814,7 +27822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>29</v>
       </c>
@@ -28041,7 +28049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="140" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>10</v>
       </c>
@@ -28268,7 +28276,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>5</v>
       </c>
@@ -28475,7 +28483,7 @@
       </c>
       <c r="BW141" s="8"/>
     </row>
-    <row r="142" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>91</v>
       </c>
@@ -28702,7 +28710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>80</v>
       </c>
@@ -28929,7 +28937,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="144" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>5</v>
       </c>
@@ -29076,7 +29084,7 @@
       <c r="BV144" s="5"/>
       <c r="BW144" s="8"/>
     </row>
-    <row r="145" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>89</v>
       </c>
@@ -29243,7 +29251,7 @@
       <c r="BV145" s="5"/>
       <c r="BW145" s="8"/>
     </row>
-    <row r="146" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>5</v>
       </c>
@@ -29390,7 +29398,7 @@
       <c r="BV146" s="5"/>
       <c r="BW146" s="8"/>
     </row>
-    <row r="147" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>5</v>
       </c>
@@ -29537,7 +29545,7 @@
       <c r="BV147" s="5"/>
       <c r="BW147" s="8"/>
     </row>
-    <row r="148" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>80</v>
       </c>
@@ -29764,7 +29772,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>5</v>
       </c>
@@ -29911,7 +29919,7 @@
       <c r="BV149" s="5"/>
       <c r="BW149" s="8"/>
     </row>
-    <row r="150" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>16</v>
       </c>
@@ -30138,7 +30146,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="151" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -30365,7 +30373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>91</v>
       </c>
@@ -30592,7 +30600,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="153" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>24</v>
       </c>
@@ -30789,7 +30797,7 @@
       </c>
       <c r="BW153" s="8"/>
     </row>
-    <row r="154" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>38</v>
       </c>
@@ -30956,7 +30964,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="155" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>5</v>
       </c>
@@ -31063,7 +31071,7 @@
       </c>
       <c r="BW155" s="8"/>
     </row>
-    <row r="156" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>89</v>
       </c>
@@ -31210,7 +31218,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="157" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>75</v>
       </c>
@@ -31437,7 +31445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>20</v>
       </c>
@@ -31664,7 +31672,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="159" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>16</v>
       </c>
@@ -31891,7 +31899,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>80</v>
       </c>
@@ -32118,7 +32126,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="161" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>91</v>
       </c>
@@ -32345,7 +32353,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>5</v>
       </c>
@@ -32552,7 +32560,7 @@
       </c>
       <c r="BW162" s="8"/>
     </row>
-    <row r="163" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>29</v>
       </c>
@@ -32779,7 +32787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>5</v>
       </c>
@@ -32886,7 +32894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
@@ -33093,7 +33101,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
@@ -33280,7 +33288,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>16</v>
       </c>
@@ -33507,7 +33515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -33654,7 +33662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
@@ -33821,7 +33829,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>7</v>
       </c>
@@ -34028,7 +34036,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="171" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>5</v>
       </c>
@@ -34135,7 +34143,7 @@
       <c r="BV171" s="5"/>
       <c r="BW171" s="8"/>
     </row>
-    <row r="172" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>20</v>
       </c>
@@ -34342,7 +34350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>80</v>
       </c>
@@ -34569,7 +34577,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="174" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>33</v>
       </c>
@@ -34796,7 +34804,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="175" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>29</v>
       </c>
@@ -35023,7 +35031,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>70</v>
       </c>
@@ -35250,7 +35258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>75</v>
       </c>
@@ -35477,7 +35485,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -35584,7 +35592,7 @@
       <c r="BV178" s="5"/>
       <c r="BW178" s="8"/>
     </row>
-    <row r="179" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -35691,7 +35699,7 @@
       <c r="BV179" s="5"/>
       <c r="BW179" s="8"/>
     </row>
-    <row r="180" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -35798,7 +35806,7 @@
       <c r="BV180" s="5"/>
       <c r="BW180" s="8"/>
     </row>
-    <row r="181" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -35895,7 +35903,7 @@
       <c r="BV181" s="5"/>
       <c r="BW181" s="8"/>
     </row>
-    <row r="182" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -36002,7 +36010,7 @@
       <c r="BV182" s="5"/>
       <c r="BW182" s="8"/>
     </row>
-    <row r="183" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -36109,7 +36117,7 @@
       <c r="BV183" s="5"/>
       <c r="BW183" s="8"/>
     </row>
-    <row r="184" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -36216,7 +36224,7 @@
       <c r="BV184" s="5"/>
       <c r="BW184" s="8"/>
     </row>
-    <row r="185" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -36323,7 +36331,7 @@
       <c r="BV185" s="5"/>
       <c r="BW185" s="8"/>
     </row>
-    <row r="186" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -36430,7 +36438,7 @@
       <c r="BV186" s="5"/>
       <c r="BW186" s="8"/>
     </row>
-    <row r="187" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -36537,7 +36545,7 @@
       <c r="BV187" s="5"/>
       <c r="BW187" s="8"/>
     </row>
-    <row r="188" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>5</v>
       </c>
@@ -36644,7 +36652,7 @@
       <c r="BV188" s="5"/>
       <c r="BW188" s="8"/>
     </row>
-    <row r="189" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -36751,7 +36759,7 @@
       <c r="BV189" s="5"/>
       <c r="BW189" s="8"/>
     </row>
-    <row r="190" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -36858,7 +36866,7 @@
       <c r="BV190" s="5"/>
       <c r="BW190" s="8"/>
     </row>
-    <row r="191" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -36965,7 +36973,7 @@
       <c r="BV191" s="5"/>
       <c r="BW191" s="8"/>
     </row>
-    <row r="192" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -37072,7 +37080,7 @@
       <c r="BV192" s="5"/>
       <c r="BW192" s="8"/>
     </row>
-    <row r="193" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -37179,7 +37187,7 @@
       <c r="BV193" s="5"/>
       <c r="BW193" s="8"/>
     </row>
-    <row r="194" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -37276,7 +37284,7 @@
       <c r="BV194" s="5"/>
       <c r="BW194" s="8"/>
     </row>
-    <row r="195" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -37383,7 +37391,7 @@
       <c r="BV195" s="5"/>
       <c r="BW195" s="8"/>
     </row>
-    <row r="196" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -37490,7 +37498,7 @@
       <c r="BV196" s="5"/>
       <c r="BW196" s="8"/>
     </row>
-    <row r="197" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -37597,7 +37605,7 @@
       <c r="BV197" s="5"/>
       <c r="BW197" s="8"/>
     </row>
-    <row r="198" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -37824,7 +37832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="199" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>24</v>
       </c>
@@ -37991,7 +37999,7 @@
       <c r="BV199" s="5"/>
       <c r="BW199" s="8"/>
     </row>
-    <row r="200" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>65</v>
       </c>
@@ -38218,7 +38226,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="201" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>5</v>
       </c>
@@ -38387,6 +38395,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BJ2:BP2"/>
     <mergeCell ref="BQ2:BW2"/>
     <mergeCell ref="AV1:BI1"/>
     <mergeCell ref="BJ1:BW1"/>
@@ -38403,7 +38412,6 @@
     <mergeCell ref="AO2:AU2"/>
     <mergeCell ref="AV2:BB2"/>
     <mergeCell ref="BC2:BI2"/>
-    <mergeCell ref="BJ2:BP2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
